--- a/PERT C.P.xlsx
+++ b/PERT C.P.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Connect.Pet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19812" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -178,11 +183,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +446,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -487,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,9 +532,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,6 +567,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -728,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -738,22 +753,22 @@
       <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -766,7 +781,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="45.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
@@ -796,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+    <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -807,7 +822,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
@@ -841,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1">
+    <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -875,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickBot="1">
+    <row r="7" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -909,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickBot="1">
+    <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -943,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1">
+    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -977,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickBot="1">
+    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickBot="1">
+    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickBot="1">
+    <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1113,7 +1128,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickBot="1">
+    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="39.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickBot="1">
+    <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -1229,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickBot="1">
+    <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
@@ -1263,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickBot="1">
+    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickBot="1">
+    <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickBot="1">
+    <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -1365,7 +1380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickBot="1">
+    <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickBot="1">
+    <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -1433,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickBot="1">
+    <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickBot="1">
+    <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickBot="1">
+    <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="22" t="s">
@@ -1523,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickBot="1">
+    <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickBot="1">
+    <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickBot="1">
+    <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickBot="1">
+    <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickBot="1">
+    <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickBot="1">
+    <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickBot="1">
+    <row r="33" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -1759,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5" thickBot="1">
+    <row r="34" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5" thickBot="1">
+    <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5" thickBot="1">
+    <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -1839,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5" thickBot="1">
+    <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5" thickBot="1">
+    <row r="38" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickBot="1">
+    <row r="39" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>33</v>
       </c>
@@ -1941,7 +1956,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5" thickBot="1">
+    <row r="40" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>33</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5" thickBot="1">
+    <row r="41" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>33</v>
       </c>
@@ -2009,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5" thickBot="1">
+    <row r="42" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>33</v>
       </c>
@@ -2043,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16.5" thickBot="1">
+    <row r="43" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16.5" thickBot="1">
+    <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>33</v>
       </c>
@@ -2111,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.5" thickBot="1">
+    <row r="45" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>33</v>
       </c>
@@ -2145,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16.5" thickBot="1">
+    <row r="46" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>33</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16.5" thickBot="1">
+    <row r="47" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="30" t="s">
@@ -2201,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16.5" thickBot="1">
+    <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="32"/>
@@ -2217,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16.5" thickBot="1">
+    <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
@@ -2254,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.5" thickBot="1">
+    <row r="50" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -2291,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16.5" thickBot="1">
+    <row r="51" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="31.5" customHeight="1">
+    <row r="53" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F53" s="38" t="s">
         <v>52</v>
       </c>
